--- a/data/final_data/unrolled_gdp_timeseries.xlsx
+++ b/data/final_data/unrolled_gdp_timeseries.xlsx
@@ -4073,13 +4073,13 @@
         <v>10</v>
       </c>
       <c r="D177">
-        <v>11583.85511619484</v>
+        <v>11460.29668254403</v>
       </c>
       <c r="E177">
-        <v>10919.11170908743</v>
+        <v>10767.80439610574</v>
       </c>
       <c r="F177">
-        <v>12248.59852330225</v>
+        <v>12152.78896898232</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4093,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="D178">
-        <v>12084.43257090343</v>
+        <v>11648.13294162975</v>
       </c>
       <c r="E178">
-        <v>10626.30744699739</v>
+        <v>10306.67625396197</v>
       </c>
       <c r="F178">
-        <v>13542.55769480948</v>
+        <v>12989.58962929752</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4113,13 +4113,13 @@
         <v>10</v>
       </c>
       <c r="D179">
-        <v>12646.18351783869</v>
+        <v>11842.9853064546</v>
       </c>
       <c r="E179">
-        <v>10463.46358259341</v>
+        <v>9926.664443141246</v>
       </c>
       <c r="F179">
-        <v>14828.90345308398</v>
+        <v>13759.30616976794</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4133,13 +4133,13 @@
         <v>10</v>
       </c>
       <c r="D180">
-        <v>13402.43310398249</v>
+        <v>12020.43577222147</v>
       </c>
       <c r="E180">
-        <v>10357.20359761468</v>
+        <v>9659.807628642049</v>
       </c>
       <c r="F180">
-        <v>16447.6626103503</v>
+        <v>14381.06391580089</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4153,13 +4153,13 @@
         <v>10</v>
       </c>
       <c r="D181">
-        <v>14286.47975343849</v>
+        <v>12163.56836715299</v>
       </c>
       <c r="E181">
-        <v>10373.98784585082</v>
+        <v>9504.190890591817</v>
       </c>
       <c r="F181">
-        <v>18198.97166102617</v>
+        <v>14822.94584371417</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4173,13 +4173,13 @@
         <v>10</v>
       </c>
       <c r="D182">
-        <v>15296.75063715111</v>
+        <v>12263.27480789756</v>
       </c>
       <c r="E182">
-        <v>10518.56886508334</v>
+        <v>9435.394351987039</v>
       </c>
       <c r="F182">
-        <v>20074.93240921887</v>
+        <v>15091.15526380809</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4193,13 +4193,13 @@
         <v>10</v>
       </c>
       <c r="D183">
-        <v>16440.91382974407</v>
+        <v>12317.57624657958</v>
       </c>
       <c r="E183">
-        <v>10803.41945412603</v>
+        <v>9417.161217762641</v>
       </c>
       <c r="F183">
-        <v>22078.4082053621</v>
+        <v>15217.99127539651</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="D184">
-        <v>17690.85998748845</v>
+        <v>12330.2607085964</v>
       </c>
       <c r="E184">
-        <v>11233.85024133721</v>
+        <v>9411.924251039716</v>
       </c>
       <c r="F184">
-        <v>24147.86973363969</v>
+        <v>15248.59716615309</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4233,13 +4233,13 @@
         <v>10</v>
       </c>
       <c r="D185">
-        <v>19043.34316209806</v>
+        <v>12309.14905377942</v>
       </c>
       <c r="E185">
-        <v>11811.46432497509</v>
+        <v>9390.598675682881</v>
       </c>
       <c r="F185">
-        <v>26275.22199922102</v>
+        <v>15227.69943187596</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4253,13 +4253,13 @@
         <v>10</v>
       </c>
       <c r="D186">
-        <v>20482.9241580632</v>
+        <v>12264.27588384761</v>
       </c>
       <c r="E186">
-        <v>12534.01071387093</v>
+        <v>9339.412082453517</v>
       </c>
       <c r="F186">
-        <v>28431.83760225548</v>
+        <v>15189.1396852417</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4273,13 +4273,13 @@
         <v>10</v>
       </c>
       <c r="D187">
-        <v>21993.75411383215</v>
+        <v>12206.21772983758</v>
       </c>
       <c r="E187">
-        <v>13394.8308476239</v>
+        <v>9260.948605790767</v>
       </c>
       <c r="F187">
-        <v>30592.67738004039</v>
+        <v>15151.48685388438</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5313,13 +5313,13 @@
         <v>12</v>
       </c>
       <c r="D239">
-        <v>11939.3280295965</v>
+        <v>11577.38264974286</v>
       </c>
       <c r="E239">
-        <v>10836.73723020771</v>
+        <v>10306.44756148301</v>
       </c>
       <c r="F239">
-        <v>13041.9188289853</v>
+        <v>12848.31773800271</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5333,13 +5333,13 @@
         <v>12</v>
       </c>
       <c r="D240">
-        <v>12712.02060980424</v>
+        <v>11616.5304752984</v>
       </c>
       <c r="E240">
-        <v>11077.68842801225</v>
+        <v>9203.432770042289</v>
       </c>
       <c r="F240">
-        <v>14346.35279159623</v>
+        <v>14029.62818055451</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5353,13 +5353,13 @@
         <v>12</v>
       </c>
       <c r="D241">
-        <v>13668.31743613701</v>
+        <v>11644.54735851011</v>
       </c>
       <c r="E241">
-        <v>12023.36400569711</v>
+        <v>8819.97978368646</v>
       </c>
       <c r="F241">
-        <v>15313.27086657691</v>
+        <v>14469.11493333375</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5373,13 +5373,13 @@
         <v>12</v>
       </c>
       <c r="D242">
-        <v>14849.38449952612</v>
+        <v>11664.59817190164</v>
       </c>
       <c r="E242">
-        <v>13202.81129677849</v>
+        <v>8650.961375280265</v>
       </c>
       <c r="F242">
-        <v>16495.95770227374</v>
+        <v>14678.23496852302</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5393,13 +5393,13 @@
         <v>12</v>
       </c>
       <c r="D243">
-        <v>16249.61323739848</v>
+        <v>11678.94791646903</v>
       </c>
       <c r="E243">
-        <v>14609.28852892429</v>
+        <v>8572.926995003912</v>
       </c>
       <c r="F243">
-        <v>17889.93794587267</v>
+        <v>14784.96883793414</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5413,13 +5413,13 @@
         <v>12</v>
       </c>
       <c r="D244">
-        <v>17857.67523679981</v>
+        <v>11689.21758309692</v>
       </c>
       <c r="E244">
-        <v>16229.61920938389</v>
+        <v>8536.927493657255</v>
       </c>
       <c r="F244">
-        <v>19485.73126421573</v>
+        <v>14841.50767253658</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5433,13 +5433,13 @@
         <v>12</v>
       </c>
       <c r="D245">
-        <v>19656.8195580524</v>
+        <v>11696.56726462977</v>
       </c>
       <c r="E245">
-        <v>18044.60350763383</v>
+        <v>8520.839986304169</v>
       </c>
       <c r="F245">
-        <v>21269.03560847098</v>
+        <v>14872.29454295537</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5453,13 +5453,13 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>21625.31153574259</v>
+        <v>11701.82720349552</v>
       </c>
       <c r="E246">
-        <v>20029.63616970974</v>
+        <v>8514.162549529712</v>
       </c>
       <c r="F246">
-        <v>23220.98690177545</v>
+        <v>14889.49185746133</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5473,13 +5473,13 @@
         <v>12</v>
       </c>
       <c r="D247">
-        <v>23737.00156253854</v>
+        <v>11705.59157842085</v>
       </c>
       <c r="E247">
-        <v>22155.53071570911</v>
+        <v>8511.830093732227</v>
       </c>
       <c r="F247">
-        <v>25318.47240936797</v>
+        <v>14899.35306310947</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5493,13 +5493,13 @@
         <v>12</v>
       </c>
       <c r="D248">
-        <v>25962.00897121129</v>
+        <v>11708.28562467122</v>
       </c>
       <c r="E248">
-        <v>24389.53076881943</v>
+        <v>8511.405955522152</v>
       </c>
       <c r="F248">
-        <v>27534.48717360314</v>
+        <v>14905.16529382028</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5513,13 +5513,13 @@
         <v>12</v>
       </c>
       <c r="D249">
-        <v>28267.50312961993</v>
+        <v>11710.21366992258</v>
       </c>
       <c r="E249">
-        <v>26696.45756940843</v>
+        <v>8511.738099900089</v>
       </c>
       <c r="F249">
-        <v>29838.54868983143</v>
+        <v>14908.68923994507</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5933,13 +5933,13 @@
         <v>13</v>
       </c>
       <c r="D270">
-        <v>12669.21271714756</v>
+        <v>12579.29052226535</v>
       </c>
       <c r="E270">
-        <v>11377.25356747943</v>
+        <v>11398.82146493748</v>
       </c>
       <c r="F270">
-        <v>13961.17186681569</v>
+        <v>13759.75957959321</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5953,13 +5953,13 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>13220.90429642276</v>
+        <v>12682.45514769937</v>
       </c>
       <c r="E271">
-        <v>11175.78924544668</v>
+        <v>11002.86863102686</v>
       </c>
       <c r="F271">
-        <v>15266.01934739884</v>
+        <v>14362.04166437189</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5973,13 +5973,13 @@
         <v>13</v>
       </c>
       <c r="D272">
-        <v>13759.95691762875</v>
+        <v>12715.5733299751</v>
       </c>
       <c r="E272">
-        <v>11288.81273905519</v>
+        <v>10813.44904864756</v>
       </c>
       <c r="F272">
-        <v>16231.10109620231</v>
+        <v>14617.69761130265</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5993,13 +5993,13 @@
         <v>13</v>
       </c>
       <c r="D273">
-        <v>14544.93775099775</v>
+        <v>12547.15159983491</v>
       </c>
       <c r="E273">
-        <v>11647.29491737051</v>
+        <v>10390.09546880048</v>
       </c>
       <c r="F273">
-        <v>17442.58058462498</v>
+        <v>14704.20773086935</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6013,13 +6013,13 @@
         <v>13</v>
       </c>
       <c r="D274">
-        <v>15385.72660818133</v>
+        <v>12332.8479339429</v>
       </c>
       <c r="E274">
-        <v>12193.97734722304</v>
+        <v>10081.78629803836</v>
       </c>
       <c r="F274">
-        <v>18577.47586913962</v>
+        <v>14583.90956984743</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6033,13 +6033,13 @@
         <v>13</v>
       </c>
       <c r="D275">
-        <v>16427.95301910692</v>
+        <v>12122.08532187631</v>
       </c>
       <c r="E275">
-        <v>12964.51939740834</v>
+        <v>9868.129913434381</v>
       </c>
       <c r="F275">
-        <v>19891.38664080549</v>
+        <v>14376.04073031823</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6053,13 +6053,13 @@
         <v>13</v>
       </c>
       <c r="D276">
-        <v>17558.28260810978</v>
+        <v>11887.87321128116</v>
       </c>
       <c r="E276">
-        <v>13905.14801147715</v>
+        <v>9630.39621362702</v>
       </c>
       <c r="F276">
-        <v>21211.41720474242</v>
+        <v>14145.35020893531</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6073,13 +6073,13 @@
         <v>13</v>
       </c>
       <c r="D277">
-        <v>18855.3855362031</v>
+        <v>11712.11287296306</v>
       </c>
       <c r="E277">
-        <v>15046.18770227951</v>
+        <v>9414.739528332813</v>
       </c>
       <c r="F277">
-        <v>22664.58337012669</v>
+        <v>14009.4862175933</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6093,13 +6093,13 @@
         <v>13</v>
       </c>
       <c r="D278">
-        <v>20248.19921331718</v>
+        <v>11625.86776483875</v>
       </c>
       <c r="E278">
-        <v>16340.58573757571</v>
+        <v>9231.355750166429</v>
       </c>
       <c r="F278">
-        <v>24155.81268905866</v>
+        <v>14020.37977951107</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6113,13 +6113,13 @@
         <v>13</v>
       </c>
       <c r="D279">
-        <v>21775.25441140333</v>
+        <v>11604.17474002556</v>
       </c>
       <c r="E279">
-        <v>17802.67463299986</v>
+        <v>9117.156401309017</v>
       </c>
       <c r="F279">
-        <v>25747.8341898068</v>
+        <v>14091.19307874211</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6133,13 +6133,13 @@
         <v>13</v>
       </c>
       <c r="D280">
-        <v>23388.37461334473</v>
+        <v>11656.94117573033</v>
       </c>
       <c r="E280">
-        <v>19390.03232744953</v>
+        <v>9100.129910849137</v>
       </c>
       <c r="F280">
-        <v>27386.71689923992</v>
+        <v>14213.75244061153</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6553,13 +6553,13 @@
         <v>14</v>
       </c>
       <c r="D301">
-        <v>11880.33572744243</v>
+        <v>11554.01985756238</v>
       </c>
       <c r="E301">
-        <v>11032.09246720801</v>
+        <v>10877.05212025901</v>
       </c>
       <c r="F301">
-        <v>12728.57898767685</v>
+        <v>12230.98759486575</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6573,13 +6573,13 @@
         <v>14</v>
       </c>
       <c r="D302">
-        <v>12536.77130148557</v>
+        <v>11720.54885672945</v>
       </c>
       <c r="E302">
-        <v>10764.36399522225</v>
+        <v>10638.07972228742</v>
       </c>
       <c r="F302">
-        <v>14309.1786077489</v>
+        <v>12803.01799117148</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6593,13 +6593,13 @@
         <v>14</v>
       </c>
       <c r="D303">
-        <v>13346.00357401291</v>
+        <v>11854.74052125119</v>
       </c>
       <c r="E303">
-        <v>10623.02912012576</v>
+        <v>10548.83488906702</v>
       </c>
       <c r="F303">
-        <v>16068.97802790006</v>
+        <v>13160.64615343537</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6613,13 +6613,13 @@
         <v>14</v>
       </c>
       <c r="D304">
-        <v>14255.9724960119</v>
+        <v>11956.4225198993</v>
       </c>
       <c r="E304">
-        <v>10521.97223743196</v>
+        <v>10566.50443847482</v>
       </c>
       <c r="F304">
-        <v>17989.97275459185</v>
+        <v>13346.34060132377</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6633,13 +6633,13 @@
         <v>14</v>
       </c>
       <c r="D305">
-        <v>15275.29585417974</v>
+        <v>12020.28084216312</v>
       </c>
       <c r="E305">
-        <v>10553.68006322649</v>
+        <v>10623.6481954368</v>
       </c>
       <c r="F305">
-        <v>19996.91164513299</v>
+        <v>13416.91348888943</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6653,13 +6653,13 @@
         <v>14</v>
       </c>
       <c r="D306">
-        <v>16375.05380181319</v>
+        <v>12042.88805222373</v>
       </c>
       <c r="E306">
-        <v>10692.23140292253</v>
+        <v>10644.62843361836</v>
       </c>
       <c r="F306">
-        <v>22057.87620070385</v>
+        <v>13441.14767082909</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6673,13 +6673,13 @@
         <v>14</v>
       </c>
       <c r="D307">
-        <v>17548.89975547119</v>
+        <v>12025.00786329076</v>
       </c>
       <c r="E307">
-        <v>10964.41236257415</v>
+        <v>10571.2771430682</v>
       </c>
       <c r="F307">
-        <v>24133.38714836823</v>
+        <v>13478.73858351333</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6693,13 +6693,13 @@
         <v>14</v>
       </c>
       <c r="D308">
-        <v>18777.33982361831</v>
+        <v>11971.88436917628</v>
       </c>
       <c r="E308">
-        <v>11358.09128352909</v>
+        <v>10393.90420769476</v>
       </c>
       <c r="F308">
-        <v>26196.58836370753</v>
+        <v>13549.86453065779</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6713,13 +6713,13 @@
         <v>14</v>
       </c>
       <c r="D309">
-        <v>20049.55790039748</v>
+        <v>11892.51743704385</v>
       </c>
       <c r="E309">
-        <v>11875.58983634014</v>
+        <v>10151.39782185866</v>
       </c>
       <c r="F309">
-        <v>28223.52596445482</v>
+        <v>13633.63705222903</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6733,13 +6733,13 @@
         <v>14</v>
       </c>
       <c r="D310">
-        <v>21350.66736470097</v>
+        <v>11798.38482013635</v>
       </c>
       <c r="E310">
-        <v>12505.39923642076</v>
+        <v>9899.249094376335</v>
       </c>
       <c r="F310">
-        <v>30195.93549298117</v>
+        <v>13697.52054589637</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6753,13 +6753,13 @@
         <v>14</v>
       </c>
       <c r="D311">
-        <v>22669.62255535229</v>
+        <v>11701.90601522185</v>
       </c>
       <c r="E311">
-        <v>13239.48858477949</v>
+        <v>9682.550401764749</v>
       </c>
       <c r="F311">
-        <v>32099.75652592508</v>
+        <v>13721.26162867895</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -12753,13 +12753,13 @@
         <v>24</v>
       </c>
       <c r="D611">
-        <v>12143.84589601143</v>
+        <v>11822.12947633365</v>
       </c>
       <c r="E611">
-        <v>11223.63492230543</v>
+        <v>10739.8651308287</v>
       </c>
       <c r="F611">
-        <v>13064.05686971744</v>
+        <v>12904.3938218386</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -12773,13 +12773,13 @@
         <v>24</v>
       </c>
       <c r="D612">
-        <v>12927.18301622734</v>
+        <v>12007.24035365004</v>
       </c>
       <c r="E612">
-        <v>11286.31810276077</v>
+        <v>9954.384014814486</v>
       </c>
       <c r="F612">
-        <v>14568.04792969391</v>
+        <v>14060.09669248558</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -12793,13 +12793,13 @@
         <v>24</v>
       </c>
       <c r="D613">
-        <v>13902.18281025425</v>
+        <v>12192.65776784679</v>
       </c>
       <c r="E613">
-        <v>11774.82691708414</v>
+        <v>9506.228786675436</v>
       </c>
       <c r="F613">
-        <v>16029.53870342436</v>
+        <v>14879.08674901814</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -12813,13 +12813,13 @@
         <v>24</v>
       </c>
       <c r="D614">
-        <v>15066.79782547235</v>
+        <v>12378.37968526052</v>
       </c>
       <c r="E614">
-        <v>12566.50751228627</v>
+        <v>9187.788382488105</v>
       </c>
       <c r="F614">
-        <v>17567.08813865842</v>
+        <v>15568.97098803293</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -12833,13 +12833,13 @@
         <v>24</v>
       </c>
       <c r="D615">
-        <v>16414.39787853053</v>
+        <v>12564.4040857198</v>
       </c>
       <c r="E615">
-        <v>13624.06273051904</v>
+        <v>8944.506178289679</v>
       </c>
       <c r="F615">
-        <v>19204.73302654202</v>
+        <v>16184.30199314992</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -12853,13 +12853,13 @@
         <v>24</v>
       </c>
       <c r="D616">
-        <v>17933.96228559905</v>
+        <v>12750.72896245566</v>
       </c>
       <c r="E616">
-        <v>14923.26870448555</v>
+        <v>8752.131350326315</v>
       </c>
       <c r="F616">
-        <v>20944.65586671256</v>
+        <v>16749.32657458501</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -12873,13 +12873,13 @@
         <v>24</v>
       </c>
       <c r="D617">
-        <v>19610.37720945713</v>
+        <v>12937.35232201269</v>
       </c>
       <c r="E617">
-        <v>16440.77229555326</v>
+        <v>8597.335016161773</v>
       </c>
       <c r="F617">
-        <v>22779.982123361</v>
+        <v>17277.36962786361</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -12893,13 +12893,13 @@
         <v>24</v>
       </c>
       <c r="D618">
-        <v>21424.83019244734</v>
+        <v>13124.27218416069</v>
       </c>
       <c r="E618">
-        <v>18150.56587589806</v>
+        <v>8471.84620460959</v>
       </c>
       <c r="F618">
-        <v>24699.09450899662</v>
+        <v>17776.6981637118</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -12913,13 +12913,13 @@
         <v>24</v>
       </c>
       <c r="D619">
-        <v>23355.2916427791</v>
+        <v>13311.48658180694</v>
       </c>
       <c r="E619">
-        <v>20022.85101932853</v>
+        <v>8370.106955417981</v>
       </c>
       <c r="F619">
-        <v>26687.73226622966</v>
+        <v>18252.8662081959</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -12933,13 +12933,13 @@
         <v>24</v>
       </c>
       <c r="D620">
-        <v>25377.07100399792</v>
+        <v>13498.99356090903</v>
       </c>
       <c r="E620">
-        <v>22023.83564798837</v>
+        <v>8288.164750717257</v>
       </c>
       <c r="F620">
-        <v>28730.30636000746</v>
+        <v>18709.82237110081</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -12953,13 +12953,13 @@
         <v>24</v>
       </c>
       <c r="D621">
-        <v>27463.43361123843</v>
+        <v>13686.79118038831</v>
       </c>
       <c r="E621">
-        <v>24116.04127926643</v>
+        <v>8223.086836986909</v>
       </c>
       <c r="F621">
-        <v>30810.82594321042</v>
+        <v>19150.4955237897</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -13373,13 +13373,13 @@
         <v>25</v>
       </c>
       <c r="D642">
-        <v>12160.18906174648</v>
+        <v>12097.97972531622</v>
       </c>
       <c r="E642">
-        <v>11503.31688978689</v>
+        <v>11119.83237433756</v>
       </c>
       <c r="F642">
-        <v>12817.06123370606</v>
+        <v>13076.12707629487</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -13393,13 +13393,13 @@
         <v>25</v>
       </c>
       <c r="D643">
-        <v>12787.95476735735</v>
+        <v>12297.22829626045</v>
       </c>
       <c r="E643">
-        <v>11625.83875996355</v>
+        <v>10915.32115412093</v>
       </c>
       <c r="F643">
-        <v>13950.07077475115</v>
+        <v>13679.13543839997</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -13413,13 +13413,13 @@
         <v>25</v>
       </c>
       <c r="D644">
-        <v>13558.25935336246</v>
+        <v>12496.50809155568</v>
       </c>
       <c r="E644">
-        <v>12071.58713738485</v>
+        <v>10805.73872847917</v>
       </c>
       <c r="F644">
-        <v>15044.93156934006</v>
+        <v>14187.27745463219</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -13433,13 +13433,13 @@
         <v>25</v>
       </c>
       <c r="D645">
-        <v>14267.66969532379</v>
+        <v>12695.81904787243</v>
       </c>
       <c r="E645">
-        <v>12315.64046473856</v>
+        <v>10745.46293763653</v>
       </c>
       <c r="F645">
-        <v>16219.69892590902</v>
+        <v>14646.17515810833</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -13453,13 +13453,13 @@
         <v>25</v>
       </c>
       <c r="D646">
-        <v>15177.63478687888</v>
+        <v>12895.16110200965</v>
       </c>
       <c r="E646">
-        <v>12654.88938438841</v>
+        <v>10716.8023880742</v>
       </c>
       <c r="F646">
-        <v>17700.38018936935</v>
+        <v>15073.51981594509</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -13473,13 +13473,13 @@
         <v>25</v>
       </c>
       <c r="D647">
-        <v>16298.67433286286</v>
+        <v>13094.53419089448</v>
       </c>
       <c r="E647">
-        <v>13310.22205089472</v>
+        <v>10710.67392868715</v>
       </c>
       <c r="F647">
-        <v>19287.12661483101</v>
+        <v>15478.39445310182</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -13493,13 +13493,13 @@
         <v>25</v>
       </c>
       <c r="D648">
-        <v>17428.52004522255</v>
+        <v>13293.938251582</v>
       </c>
       <c r="E648">
-        <v>13990.66271934508</v>
+        <v>10721.67590019212</v>
       </c>
       <c r="F648">
-        <v>20866.37737110001</v>
+        <v>15866.20060297188</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -13513,13 +13513,13 @@
         <v>25</v>
       </c>
       <c r="D649">
-        <v>18645.43793967891</v>
+        <v>13493.37322125493</v>
       </c>
       <c r="E649">
-        <v>14713.90937808883</v>
+        <v>10746.28500897235</v>
       </c>
       <c r="F649">
-        <v>22576.96650126899</v>
+        <v>16240.46143353751</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -13533,13 +13533,13 @@
         <v>25</v>
       </c>
       <c r="D650">
-        <v>20036.10507280911</v>
+        <v>13692.83903722342</v>
       </c>
       <c r="E650">
-        <v>15664.2581115076</v>
+        <v>10782.05130742587</v>
       </c>
       <c r="F650">
-        <v>24407.95203411061</v>
+        <v>16603.62676702097</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -13553,13 +13553,13 @@
         <v>25</v>
       </c>
       <c r="D651">
-        <v>21478.5234272548</v>
+        <v>13892.33563692476</v>
       </c>
       <c r="E651">
-        <v>16729.08646089474</v>
+        <v>10827.18905624811</v>
       </c>
       <c r="F651">
-        <v>26227.96039361486</v>
+        <v>16957.48221760141</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -13573,13 +13573,13 @@
         <v>25</v>
       </c>
       <c r="D652">
-        <v>22945.10395201073</v>
+        <v>14091.86295792311</v>
       </c>
       <c r="E652">
-        <v>17832.5080126725</v>
+        <v>10880.34868666691</v>
       </c>
       <c r="F652">
-        <v>28057.69989134896</v>
+        <v>17303.37722917932</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -15853,13 +15853,13 @@
         <v>29</v>
       </c>
       <c r="D766">
-        <v>20393.60691274113</v>
+        <v>20229.07314805964</v>
       </c>
       <c r="E766">
-        <v>18299.91638229703</v>
+        <v>18359.52941708603</v>
       </c>
       <c r="F766">
-        <v>22487.29744318523</v>
+        <v>22098.61687903326</v>
       </c>
     </row>
     <row r="767" spans="1:6">
@@ -15873,13 +15873,13 @@
         <v>29</v>
       </c>
       <c r="D767">
-        <v>21408.85530304485</v>
+        <v>20754.64824017154</v>
       </c>
       <c r="E767">
-        <v>17469.13693971096</v>
+        <v>18036.04653162939</v>
       </c>
       <c r="F767">
-        <v>25348.57366637875</v>
+        <v>23473.2499487137</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -15893,13 +15893,13 @@
         <v>29</v>
       </c>
       <c r="D768">
-        <v>22663.2441042161</v>
+        <v>21047.56545838486</v>
       </c>
       <c r="E768">
-        <v>16299.86019904582</v>
+        <v>17319.083724597</v>
       </c>
       <c r="F768">
-        <v>29026.62800938638</v>
+        <v>24776.04719217271</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -15913,13 +15913,13 @@
         <v>29</v>
       </c>
       <c r="D769">
-        <v>23890.64573001937</v>
+        <v>20906.77312634234</v>
       </c>
       <c r="E769">
-        <v>15998.6766096772</v>
+        <v>16763.8789595077</v>
       </c>
       <c r="F769">
-        <v>31782.61485036153</v>
+        <v>25049.66729317698</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -15933,13 +15933,13 @@
         <v>29</v>
       </c>
       <c r="D770">
-        <v>25115.85128690257</v>
+        <v>20600.28523404244</v>
       </c>
       <c r="E770">
-        <v>16005.32798006792</v>
+        <v>16215.33647341246</v>
       </c>
       <c r="F770">
-        <v>34226.37459373721</v>
+        <v>24985.23399467242</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -15953,13 +15953,13 @@
         <v>29</v>
       </c>
       <c r="D771">
-        <v>26338.9154779575</v>
+        <v>20094.57308942333</v>
       </c>
       <c r="E771">
-        <v>16204.77645422649</v>
+        <v>15692.45500744196</v>
       </c>
       <c r="F771">
-        <v>36473.05450168851</v>
+        <v>24496.69117140471</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -15973,13 +15973,13 @@
         <v>29</v>
       </c>
       <c r="D772">
-        <v>27559.89164364649</v>
+        <v>19630.11584306682</v>
       </c>
       <c r="E772">
-        <v>16540.32984700051</v>
+        <v>15225.66349565714</v>
       </c>
       <c r="F772">
-        <v>38579.45344029246</v>
+        <v>24034.5681904765</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -15993,13 +15993,13 @@
         <v>29</v>
       </c>
       <c r="D773">
-        <v>28778.83179574486</v>
+        <v>19205.6382382191</v>
       </c>
       <c r="E773">
-        <v>16978.86475847023</v>
+        <v>14718.94050994745</v>
       </c>
       <c r="F773">
-        <v>40578.79883301948</v>
+        <v>23692.33596649074</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -16013,13 +16013,13 @@
         <v>29</v>
       </c>
       <c r="D774">
-        <v>29995.78665043793</v>
+        <v>18963.87238277469</v>
       </c>
       <c r="E774">
-        <v>17498.92506896135</v>
+        <v>14366.09475568489</v>
       </c>
       <c r="F774">
-        <v>42492.64823191452</v>
+        <v>23561.65000986449</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -16033,13 +16033,13 @@
         <v>29</v>
       </c>
       <c r="D775">
-        <v>31210.80566059364</v>
+        <v>18860.34040467165</v>
       </c>
       <c r="E775">
-        <v>18085.60739149408</v>
+        <v>14124.20460458359</v>
       </c>
       <c r="F775">
-        <v>44336.00392969319</v>
+        <v>23596.47620475971</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -16053,13 +16053,13 @@
         <v>29</v>
       </c>
       <c r="D776">
-        <v>32423.93704723109</v>
+        <v>18932.91869892879</v>
       </c>
       <c r="E776">
-        <v>18728.02351452448</v>
+        <v>14120.77546602049</v>
       </c>
       <c r="F776">
-        <v>46119.8505799377</v>
+        <v>23745.0619318371</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16473,13 +16473,13 @@
         <v>30</v>
       </c>
       <c r="D797">
-        <v>16786.55598907141</v>
+        <v>16335.42724329257</v>
       </c>
       <c r="E797">
-        <v>15167.23817276822</v>
+        <v>14724.83198142566</v>
       </c>
       <c r="F797">
-        <v>18405.87380537459</v>
+        <v>17946.02250515948</v>
       </c>
     </row>
     <row r="798" spans="1:6">
@@ -16493,13 +16493,13 @@
         <v>30</v>
       </c>
       <c r="D798">
-        <v>18008.89102071521</v>
+        <v>16607.54999261935</v>
       </c>
       <c r="E798">
-        <v>15385.79547333364</v>
+        <v>13794.04196163166</v>
       </c>
       <c r="F798">
-        <v>20631.98656809677</v>
+        <v>19421.05802360705</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -16513,13 +16513,13 @@
         <v>30</v>
       </c>
       <c r="D799">
-        <v>19523.63664844948</v>
+        <v>16701.85421569098</v>
       </c>
       <c r="E799">
-        <v>16197.99132540438</v>
+        <v>13064.54678751564</v>
       </c>
       <c r="F799">
-        <v>22849.28197149458</v>
+        <v>20339.16164386631</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -16533,13 +16533,13 @@
         <v>30</v>
       </c>
       <c r="D800">
-        <v>21323.93008519685</v>
+        <v>16668.14004044455</v>
       </c>
       <c r="E800">
-        <v>17459.34386655028</v>
+        <v>12577.83734481946</v>
       </c>
       <c r="F800">
-        <v>25188.51630384342</v>
+        <v>20758.44273606964</v>
       </c>
     </row>
     <row r="801" spans="1:6">
@@ -16553,13 +16553,13 @@
         <v>30</v>
       </c>
       <c r="D801">
-        <v>23395.67575119257</v>
+        <v>16561.35631343415</v>
       </c>
       <c r="E801">
-        <v>19116.22602761474</v>
+        <v>12284.31831586163</v>
       </c>
       <c r="F801">
-        <v>27675.12547477039</v>
+        <v>20838.39431100666</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -16573,13 +16573,13 @@
         <v>30</v>
       </c>
       <c r="D802">
-        <v>25717.96301788963</v>
+        <v>16429.3185306026</v>
       </c>
       <c r="E802">
-        <v>21129.35707447612</v>
+        <v>12106.14645970547</v>
       </c>
       <c r="F802">
-        <v>30306.56896130314</v>
+        <v>20752.49060149973</v>
       </c>
     </row>
     <row r="803" spans="1:6">
@@ -16593,13 +16593,13 @@
         <v>30</v>
       </c>
       <c r="D803">
-        <v>28263.65453765294</v>
+        <v>16306.43128649917</v>
       </c>
       <c r="E803">
-        <v>23459.03927623924</v>
+        <v>11981.39764337493</v>
       </c>
       <c r="F803">
-        <v>33068.26979906665</v>
+        <v>20631.4649296234</v>
       </c>
     </row>
     <row r="804" spans="1:6">
@@ -16613,13 +16613,13 @@
         <v>30</v>
       </c>
       <c r="D804">
-        <v>31000.12877598062</v>
+        <v>16212.31491912872</v>
       </c>
       <c r="E804">
-        <v>26060.80876317317</v>
+        <v>11882.23621992672</v>
       </c>
       <c r="F804">
-        <v>35939.44878878808</v>
+        <v>20542.39361833072</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -16633,13 +16633,13 @@
         <v>30</v>
       </c>
       <c r="D805">
-        <v>33890.15655875864</v>
+        <v>16153.73217445766</v>
       </c>
       <c r="E805">
-        <v>28884.15872942955</v>
+        <v>11807.18530902565</v>
       </c>
       <c r="F805">
-        <v>38896.15438808773</v>
+        <v>20500.27903988967</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -16653,13 +16653,13 @@
         <v>30</v>
       </c>
       <c r="D806">
-        <v>36892.88818855742</v>
+        <v>16128.1996750973</v>
       </c>
       <c r="E806">
-        <v>31872.54947855618</v>
+        <v>11762.18755192707</v>
       </c>
       <c r="F806">
-        <v>41913.22689855865</v>
+        <v>20494.21179826752</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -16673,13 +16673,13 @@
         <v>30</v>
       </c>
       <c r="D807">
-        <v>39964.9250500008</v>
+        <v>16127.96568939988</v>
       </c>
       <c r="E807">
-        <v>34964.20385724633</v>
+        <v>11747.5130760854</v>
       </c>
       <c r="F807">
-        <v>44965.64624275527</v>
+        <v>20508.41830271436</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -17093,13 +17093,13 @@
         <v>31</v>
       </c>
       <c r="D828">
-        <v>16188.492789554</v>
+        <v>15920.22505543993</v>
       </c>
       <c r="E828">
-        <v>13764.25137959263</v>
+        <v>13488.584775687</v>
       </c>
       <c r="F828">
-        <v>18612.73419951538</v>
+        <v>18351.86533519286</v>
       </c>
     </row>
     <row r="829" spans="1:6">
@@ -17113,13 +17113,13 @@
         <v>31</v>
       </c>
       <c r="D829">
-        <v>16869.11905320609</v>
+        <v>16115.26653088629</v>
       </c>
       <c r="E829">
-        <v>12759.12551953815</v>
+        <v>12373.458435286</v>
       </c>
       <c r="F829">
-        <v>20979.11258687403</v>
+        <v>19857.07462648658</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -17133,13 +17133,13 @@
         <v>31</v>
       </c>
       <c r="D830">
-        <v>17541.72913711103</v>
+        <v>16280.97543456767</v>
       </c>
       <c r="E830">
-        <v>11453.98697874428</v>
+        <v>11826.81899659308</v>
       </c>
       <c r="F830">
-        <v>23629.47129547779</v>
+        <v>20735.13187254227</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -17153,13 +17153,13 @@
         <v>31</v>
       </c>
       <c r="D831">
-        <v>18210.22741758663</v>
+        <v>16421.76313470398</v>
       </c>
       <c r="E831">
-        <v>10247.3714408414</v>
+        <v>11517.29007742167</v>
       </c>
       <c r="F831">
-        <v>26173.08339433185</v>
+        <v>21326.2361919863</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -17173,13 +17173,13 @@
         <v>31</v>
       </c>
       <c r="D832">
-        <v>18877.13372868163</v>
+        <v>16541.37756741897</v>
       </c>
       <c r="E832">
-        <v>9238.5067808078</v>
+        <v>11336.00367762694</v>
       </c>
       <c r="F832">
-        <v>28515.76067655547</v>
+        <v>21746.751457211</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -17193,13 +17193,13 @@
         <v>31</v>
       </c>
       <c r="D833">
-        <v>19544.05310854204</v>
+        <v>16643.00301126013</v>
       </c>
       <c r="E833">
-        <v>8442.365032879312</v>
+        <v>11230.81466371908</v>
       </c>
       <c r="F833">
-        <v>30645.74118420477</v>
+        <v>22055.19135880118</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -17213,13 +17213,13 @@
         <v>31</v>
       </c>
       <c r="D834">
-        <v>20211.98736773462</v>
+        <v>16729.34485648312</v>
       </c>
       <c r="E834">
-        <v>7846.087052591185</v>
+        <v>11172.65209181674</v>
       </c>
       <c r="F834">
-        <v>32577.88768287805</v>
+        <v>22286.03762114949</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -17233,13 +17233,13 @@
         <v>31</v>
       </c>
       <c r="D835">
-        <v>20881.54167238413</v>
+        <v>16802.70162575994</v>
       </c>
       <c r="E835">
-        <v>7427.958469951089</v>
+        <v>11143.99330918159</v>
       </c>
       <c r="F835">
-        <v>34335.12487481716</v>
+        <v>22461.40994233828</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -17253,13 +17253,13 @@
         <v>31</v>
       </c>
       <c r="D836">
-        <v>21553.06145122611</v>
+        <v>16865.02616358785</v>
       </c>
       <c r="E836">
-        <v>7164.778376764089</v>
+        <v>11133.80783011042</v>
       </c>
       <c r="F836">
-        <v>35941.34452568812</v>
+        <v>22596.24449706528</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -17273,13 +17273,13 @@
         <v>31</v>
       </c>
       <c r="D837">
-        <v>22226.72306429825</v>
+        <v>16917.97762333393</v>
       </c>
       <c r="E837">
-        <v>7034.7757806013</v>
+        <v>11134.98400999689</v>
       </c>
       <c r="F837">
-        <v>37418.67034799521</v>
+        <v>22700.97123667096</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -17293,13 +17293,13 @@
         <v>31</v>
       </c>
       <c r="D838">
-        <v>22902.59379069198</v>
+        <v>16962.96563587213</v>
       </c>
       <c r="E838">
-        <v>7018.632101398505</v>
+        <v>11142.88505313255</v>
       </c>
       <c r="F838">
-        <v>38786.55547998544</v>
+        <v>22783.04621861171</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -17713,13 +17713,13 @@
         <v>32</v>
       </c>
       <c r="D859">
-        <v>12854.17365980391</v>
+        <v>13449.6609805382</v>
       </c>
       <c r="E859">
-        <v>12241.97947422422</v>
+        <v>12030.83047052428</v>
       </c>
       <c r="F859">
-        <v>13466.36784538359</v>
+        <v>14868.49149055213</v>
       </c>
     </row>
     <row r="860" spans="1:6">
@@ -17733,13 +17733,13 @@
         <v>32</v>
       </c>
       <c r="D860">
-        <v>12867.18683713543</v>
+        <v>13715.57834104387</v>
       </c>
       <c r="E860">
-        <v>11949.95854177398</v>
+        <v>11312.14466398547</v>
       </c>
       <c r="F860">
-        <v>13784.41513249687</v>
+        <v>16119.01201810226</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -17753,13 +17753,13 @@
         <v>32</v>
       </c>
       <c r="D861">
-        <v>13157.07752891868</v>
+        <v>13981.95420248385</v>
       </c>
       <c r="E861">
-        <v>11951.83774147535</v>
+        <v>10903.33348367182</v>
       </c>
       <c r="F861">
-        <v>14362.317316362</v>
+        <v>17060.57492129588</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -17773,13 +17773,13 @@
         <v>32</v>
       </c>
       <c r="D862">
-        <v>13765.71232227052</v>
+        <v>14248.78477232655</v>
       </c>
       <c r="E862">
-        <v>12290.48055134574</v>
+        <v>10626.86018116117</v>
       </c>
       <c r="F862">
-        <v>15240.94409319529</v>
+        <v>17870.70936349193</v>
       </c>
     </row>
     <row r="863" spans="1:6">
@@ -17793,13 +17793,13 @@
         <v>32</v>
       </c>
       <c r="D863">
-        <v>13466.83784566891</v>
+        <v>14516.06628941064</v>
       </c>
       <c r="E863">
-        <v>11764.08752873521</v>
+        <v>10429.65041358149</v>
       </c>
       <c r="F863">
-        <v>15169.58816260262</v>
+        <v>18602.48216523979</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -17813,13 +17813,13 @@
         <v>32</v>
       </c>
       <c r="D864">
-        <v>12966.70540907763</v>
+        <v>14783.79502368556</v>
       </c>
       <c r="E864">
-        <v>11111.33627489734</v>
+        <v>10287.10018118846</v>
       </c>
       <c r="F864">
-        <v>14822.07454325792</v>
+        <v>19280.48986618267</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -17833,13 +17833,13 @@
         <v>32</v>
       </c>
       <c r="D865">
-        <v>12664.88380857244</v>
+        <v>15051.96727595422</v>
       </c>
       <c r="E865">
-        <v>10775.41577697959</v>
+        <v>10185.37514875686</v>
       </c>
       <c r="F865">
-        <v>14554.35184016529</v>
+        <v>19918.55940315159</v>
       </c>
     </row>
     <row r="866" spans="1:6">
@@ -17853,13 +17853,13 @@
         <v>32</v>
       </c>
       <c r="D866">
-        <v>12974.6826387986</v>
+        <v>15320.57937761776</v>
       </c>
       <c r="E866">
-        <v>11084.39169369426</v>
+        <v>10115.76297572428</v>
       </c>
       <c r="F866">
-        <v>14864.97358390294</v>
+        <v>20525.39577951123</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -17873,13 +17873,13 @@
         <v>32</v>
       </c>
       <c r="D867">
-        <v>12876.03987330727</v>
+        <v>15589.62769042244</v>
       </c>
       <c r="E867">
-        <v>10978.12687853839</v>
+        <v>10072.34674015235</v>
       </c>
       <c r="F867">
-        <v>14773.95286807615</v>
+        <v>21106.90864069253</v>
       </c>
     </row>
     <row r="868" spans="1:6">
@@ -17893,13 +17893,13 @@
         <v>32</v>
       </c>
       <c r="D868">
-        <v>12327.660495617</v>
+        <v>15859.10860620871</v>
       </c>
       <c r="E868">
-        <v>10401.97374103113</v>
+        <v>10050.88431570368</v>
       </c>
       <c r="F868">
-        <v>14253.34725020288</v>
+        <v>21667.33289671375</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -17913,13 +17913,13 @@
         <v>32</v>
       </c>
       <c r="D869">
-        <v>11792.40119705487</v>
+        <v>16129.0185466622</v>
       </c>
       <c r="E869">
-        <v>9772.868169201547</v>
+        <v>10048.20741036531</v>
       </c>
       <c r="F869">
-        <v>13811.93422490819</v>
+        <v>22209.82968295908</v>
       </c>
     </row>
     <row r="870" spans="1:6">
@@ -19573,13 +19573,13 @@
         <v>35</v>
       </c>
       <c r="D952">
-        <v>12005.11204884033</v>
+        <v>12228.46131483987</v>
       </c>
       <c r="E952">
-        <v>11258.42233765144</v>
+        <v>11276.14853478132</v>
       </c>
       <c r="F952">
-        <v>12751.80176002922</v>
+        <v>13180.77409489841</v>
       </c>
     </row>
     <row r="953" spans="1:6">
@@ -19593,13 +19593,13 @@
         <v>35</v>
       </c>
       <c r="D953">
-        <v>12512.08882975129</v>
+        <v>12445.28068203955</v>
       </c>
       <c r="E953">
-        <v>10720.53563587824</v>
+        <v>10363.64779190575</v>
       </c>
       <c r="F953">
-        <v>14303.64202362435</v>
+        <v>14526.91357217335</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -19613,13 +19613,13 @@
         <v>35</v>
       </c>
       <c r="D954">
-        <v>13563.7267840745</v>
+        <v>12662.52943948195</v>
       </c>
       <c r="E954">
-        <v>10677.61957940265</v>
+        <v>9886.871387375291</v>
       </c>
       <c r="F954">
-        <v>16449.83398874634</v>
+        <v>15438.1874915886</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -19633,13 +19633,13 @@
         <v>35</v>
       </c>
       <c r="D955">
-        <v>14292.43336467977</v>
+        <v>12880.20411336821</v>
       </c>
       <c r="E955">
-        <v>10161.08443662401</v>
+        <v>9560.409574180432</v>
       </c>
       <c r="F955">
-        <v>18423.78229273554</v>
+        <v>16199.998652556</v>
       </c>
     </row>
     <row r="956" spans="1:6">
@@ -19653,13 +19653,13 @@
         <v>35</v>
       </c>
       <c r="D956">
-        <v>15487.03998513865</v>
+        <v>13098.30125800282</v>
       </c>
       <c r="E956">
-        <v>10191.17212363364</v>
+        <v>9318.837620880848</v>
       </c>
       <c r="F956">
-        <v>20782.90784664367</v>
+        <v>16877.76489512479</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -19673,13 +19673,13 @@
         <v>35</v>
       </c>
       <c r="D957">
-        <v>16540.9537879384</v>
+        <v>13316.81745556615</v>
       </c>
       <c r="E957">
-        <v>10086.84490830051</v>
+        <v>9134.106882821008</v>
       </c>
       <c r="F957">
-        <v>22995.06266757629</v>
+        <v>17499.52802831129</v>
       </c>
     </row>
     <row r="958" spans="1:6">
@@ -19693,13 +19693,13 @@
         <v>35</v>
       </c>
       <c r="D958">
-        <v>17688.11584094031</v>
+        <v>13535.74931588901</v>
       </c>
       <c r="E958">
-        <v>10161.61030164776</v>
+        <v>8991.076581444571</v>
       </c>
       <c r="F958">
-        <v>25214.62138023285</v>
+        <v>18080.42205033346</v>
       </c>
     </row>
     <row r="959" spans="1:6">
@@ -19713,13 +19713,13 @@
         <v>35</v>
       </c>
       <c r="D959">
-        <v>19029.87343662221</v>
+        <v>13755.09347622893</v>
       </c>
       <c r="E959">
-        <v>10536.31544383497</v>
+        <v>8880.452285378793</v>
       </c>
       <c r="F959">
-        <v>27523.43142940944</v>
+        <v>18629.73466707907</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -19733,13 +19733,13 @@
         <v>35</v>
       </c>
       <c r="D960">
-        <v>20120.78768120477</v>
+        <v>13974.84660104827</v>
       </c>
       <c r="E960">
-        <v>10732.70741365731</v>
+        <v>8796.032306248275</v>
       </c>
       <c r="F960">
-        <v>29508.86794875222</v>
+        <v>19153.66089584826</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -19753,13 +19753,13 @@
         <v>35</v>
       </c>
       <c r="D961">
-        <v>21571.00711018363</v>
+        <v>14195.00538179413</v>
       </c>
       <c r="E961">
-        <v>11426.88098949078</v>
+        <v>8733.427801927994</v>
       </c>
       <c r="F961">
-        <v>31715.13323087648</v>
+        <v>19656.58296166026</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -19773,13 +19773,13 @@
         <v>35</v>
       </c>
       <c r="D962">
-        <v>22710.3188673227</v>
+        <v>14415.56653668006</v>
       </c>
       <c r="E962">
-        <v>11885.44398382124</v>
+        <v>8689.393527424103</v>
       </c>
       <c r="F962">
-        <v>33535.19375082415</v>
+        <v>20141.73954593601</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -20193,13 +20193,13 @@
         <v>36</v>
       </c>
       <c r="D983">
-        <v>24574.94324138416</v>
+        <v>23785.94569169451</v>
       </c>
       <c r="E983">
-        <v>22359.01727198414</v>
+        <v>22541.43910375711</v>
       </c>
       <c r="F983">
-        <v>26790.86921078419</v>
+        <v>25030.45227963191</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -20213,13 +20213,13 @@
         <v>36</v>
       </c>
       <c r="D984">
-        <v>27125.28237357033</v>
+        <v>24062.29860797606</v>
       </c>
       <c r="E984">
-        <v>22411.02730537593</v>
+        <v>22426.64558972531</v>
       </c>
       <c r="F984">
-        <v>31839.53744176473</v>
+        <v>25697.95162622682</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -20233,13 +20233,13 @@
         <v>36</v>
       </c>
       <c r="D985">
-        <v>29350.95015032097</v>
+        <v>24362.72227759628</v>
       </c>
       <c r="E985">
-        <v>22465.42501682286</v>
+        <v>22715.49498720638</v>
       </c>
       <c r="F985">
-        <v>36236.47528381908</v>
+        <v>26009.94956798617</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -20253,13 +20253,13 @@
         <v>36</v>
       </c>
       <c r="D986">
-        <v>30492.74322050313</v>
+        <v>24297.0440203799</v>
       </c>
       <c r="E986">
-        <v>21639.19245512799</v>
+        <v>22624.62637361137</v>
       </c>
       <c r="F986">
-        <v>39346.29398587827</v>
+        <v>25969.46166714842</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -20273,13 +20273,13 @@
         <v>36</v>
       </c>
       <c r="D987">
-        <v>32204.24610816849</v>
+        <v>24095.67013899555</v>
       </c>
       <c r="E987">
-        <v>22158.9021450443</v>
+        <v>22394.98582218266</v>
       </c>
       <c r="F987">
-        <v>42249.59007129267</v>
+        <v>25796.35445580844</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -20293,13 +20293,13 @@
         <v>36</v>
       </c>
       <c r="D988">
-        <v>34191.34805080449</v>
+        <v>23741.04025798984</v>
       </c>
       <c r="E988">
-        <v>23138.78226985843</v>
+        <v>21945.03317271694</v>
       </c>
       <c r="F988">
-        <v>45243.91383175054</v>
+        <v>25537.04734326275</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -20313,13 +20313,13 @@
         <v>36</v>
       </c>
       <c r="D989">
-        <v>35798.80247311691</v>
+        <v>23278.73686178782</v>
       </c>
       <c r="E989">
-        <v>23729.95937648719</v>
+        <v>21331.5781228588</v>
       </c>
       <c r="F989">
-        <v>47867.64556974662</v>
+        <v>25225.89560071683</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -20333,13 +20333,13 @@
         <v>36</v>
       </c>
       <c r="D990">
-        <v>37420.61888072228</v>
+        <v>22827.74722361192</v>
       </c>
       <c r="E990">
-        <v>24496.2386032015</v>
+        <v>20690.03508583898</v>
       </c>
       <c r="F990">
-        <v>50344.99915824306</v>
+        <v>24965.45936138487</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -20353,13 +20353,13 @@
         <v>36</v>
       </c>
       <c r="D991">
-        <v>39207.88409321863</v>
+        <v>22427.84306736809</v>
       </c>
       <c r="E991">
-        <v>25551.33526844499</v>
+        <v>20153.89871286702</v>
       </c>
       <c r="F991">
-        <v>52864.43291799226</v>
+        <v>24701.78742186917</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -20373,13 +20373,13 @@
         <v>36</v>
       </c>
       <c r="D992">
-        <v>40917.88389583039</v>
+        <v>22151.84355463192</v>
       </c>
       <c r="E992">
-        <v>26565.80609268479</v>
+        <v>19799.37703260991</v>
       </c>
       <c r="F992">
-        <v>55269.96169897599</v>
+        <v>24504.31007665393</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -20393,13 +20393,13 @@
         <v>36</v>
       </c>
       <c r="D993">
-        <v>42575.45461121341</v>
+        <v>22033.85479494208</v>
       </c>
       <c r="E993">
-        <v>27584.21273873346</v>
+        <v>19658.7091742491</v>
       </c>
       <c r="F993">
-        <v>57566.69648369336</v>
+        <v>24409.00041563506</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -25153,13 +25153,13 @@
         <v>44</v>
       </c>
       <c r="D1231">
-        <v>13798.90071398415</v>
+        <v>13009.79139345255</v>
       </c>
       <c r="E1231">
-        <v>12778.52436935133</v>
+        <v>12070.749930787</v>
       </c>
       <c r="F1231">
-        <v>14819.27705861697</v>
+        <v>13948.83285611809</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -25173,13 +25173,13 @@
         <v>44</v>
       </c>
       <c r="D1232">
-        <v>14319.41948217588</v>
+        <v>12995.09895519223</v>
       </c>
       <c r="E1232">
-        <v>12357.9397695394</v>
+        <v>11643.40256256514</v>
       </c>
       <c r="F1232">
-        <v>16280.89919481236</v>
+        <v>14346.79534781932</v>
       </c>
     </row>
     <row r="1233" spans="1:6">
@@ -25193,13 +25193,13 @@
         <v>44</v>
       </c>
       <c r="D1233">
-        <v>15384.45274059597</v>
+        <v>12908.49491150136</v>
       </c>
       <c r="E1233">
-        <v>12250.05648980812</v>
+        <v>11188.14441456054</v>
       </c>
       <c r="F1233">
-        <v>18518.84899138382</v>
+        <v>14628.84540844218</v>
       </c>
     </row>
     <row r="1234" spans="1:6">
@@ -25213,13 +25213,13 @@
         <v>44</v>
       </c>
       <c r="D1234">
-        <v>16451.62743909064</v>
+        <v>12818.42290130896</v>
       </c>
       <c r="E1234">
-        <v>12172.72763547561</v>
+        <v>10990.67862298723</v>
       </c>
       <c r="F1234">
-        <v>20730.52724270568</v>
+        <v>14646.16717963069</v>
       </c>
     </row>
     <row r="1235" spans="1:6">
@@ -25233,13 +25233,13 @@
         <v>44</v>
       </c>
       <c r="D1235">
-        <v>17372.45871387162</v>
+        <v>12736.585110319</v>
       </c>
       <c r="E1235">
-        <v>12010.23816071699</v>
+        <v>10906.91124989661</v>
       </c>
       <c r="F1235">
-        <v>22734.67926702624</v>
+        <v>14566.25897074139</v>
       </c>
     </row>
     <row r="1236" spans="1:6">
@@ -25253,13 +25253,13 @@
         <v>44</v>
       </c>
       <c r="D1236">
-        <v>18803.26921395457</v>
+        <v>12672.20104868482</v>
       </c>
       <c r="E1236">
-        <v>12331.89787719176</v>
+        <v>10830.04817015447</v>
       </c>
       <c r="F1236">
-        <v>25274.64055071738</v>
+        <v>14514.35392721516</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
@@ -25273,13 +25273,13 @@
         <v>44</v>
       </c>
       <c r="D1237">
-        <v>19925.57665877301</v>
+        <v>12631.16189757808</v>
       </c>
       <c r="E1237">
-        <v>12482.39936788019</v>
+        <v>10698.19354732047</v>
       </c>
       <c r="F1237">
-        <v>27368.75394966584</v>
+        <v>14564.13024783569</v>
       </c>
     </row>
     <row r="1238" spans="1:6">
@@ -25293,13 +25293,13 @@
         <v>44</v>
       </c>
       <c r="D1238">
-        <v>21192.34729948274</v>
+        <v>12615.70631492547</v>
       </c>
       <c r="E1238">
-        <v>12840.74964737424</v>
+        <v>10517.18121365921</v>
       </c>
       <c r="F1238">
-        <v>29543.94495159123</v>
+        <v>14714.23141619173</v>
       </c>
     </row>
     <row r="1239" spans="1:6">
@@ -25313,13 +25313,13 @@
         <v>44</v>
       </c>
       <c r="D1239">
-        <v>22705.1445407807</v>
+        <v>12624.59355828261</v>
       </c>
       <c r="E1239">
-        <v>13512.61411895751</v>
+        <v>10335.84310206444</v>
       </c>
       <c r="F1239">
-        <v>31897.67496260388</v>
+        <v>14913.34401450078</v>
       </c>
     </row>
     <row r="1240" spans="1:6">
@@ -25333,13 +25333,13 @@
         <v>44</v>
       </c>
       <c r="D1240">
-        <v>23852.80270479005</v>
+        <v>12653.69054341766</v>
       </c>
       <c r="E1240">
-        <v>13957.87598835612</v>
+        <v>10200.9393962561</v>
       </c>
       <c r="F1240">
-        <v>33747.72942122398</v>
+        <v>15106.44169057921</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -25353,13 +25353,13 @@
         <v>44</v>
       </c>
       <c r="D1241">
-        <v>25340.17486640689</v>
+        <v>12696.84800385644</v>
       </c>
       <c r="E1241">
-        <v>14798.50261318812</v>
+        <v>10134.32175829312</v>
       </c>
       <c r="F1241">
-        <v>35881.84711962567</v>
+        <v>15259.37424941976</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -28873,13 +28873,13 @@
         <v>50</v>
       </c>
       <c r="D1417">
-        <v>24152.36044647582</v>
+        <v>24128.26197976719</v>
       </c>
       <c r="E1417">
-        <v>21456.06555910902</v>
+        <v>21472.36886116865</v>
       </c>
       <c r="F1417">
-        <v>26848.65533384263</v>
+        <v>26784.15509836572</v>
       </c>
     </row>
     <row r="1418" spans="1:6">
@@ -28893,13 +28893,13 @@
         <v>50</v>
       </c>
       <c r="D1418">
-        <v>25837.25101907787</v>
+        <v>25116.5590046429</v>
       </c>
       <c r="E1418">
-        <v>20629.82967135626</v>
+        <v>19787.94058344222</v>
       </c>
       <c r="F1418">
-        <v>31044.67236679948</v>
+        <v>30445.17742584358</v>
       </c>
     </row>
     <row r="1419" spans="1:6">
@@ -28913,13 +28913,13 @@
         <v>50</v>
       </c>
       <c r="D1419">
-        <v>27765.42025987867</v>
+        <v>26232.85328992661</v>
       </c>
       <c r="E1419">
-        <v>20476.70307150865</v>
+        <v>18769.97534750009</v>
       </c>
       <c r="F1419">
-        <v>35054.13744824868</v>
+        <v>33695.73123235312</v>
       </c>
     </row>
     <row r="1420" spans="1:6">
@@ -28933,13 +28933,13 @@
         <v>50</v>
       </c>
       <c r="D1420">
-        <v>29893.02571098736</v>
+        <v>27219.49656171016</v>
       </c>
       <c r="E1420">
-        <v>20559.04650157263</v>
+        <v>17840.65357872299</v>
       </c>
       <c r="F1420">
-        <v>39227.00492040208</v>
+        <v>36598.33954469732</v>
       </c>
     </row>
     <row r="1421" spans="1:6">
@@ -28953,13 +28953,13 @@
         <v>50</v>
       </c>
       <c r="D1421">
-        <v>32189.21682725941</v>
+        <v>28259.76353438831</v>
       </c>
       <c r="E1421">
-        <v>20807.14731915288</v>
+        <v>17292.20643152489</v>
       </c>
       <c r="F1421">
-        <v>43571.28633536595</v>
+        <v>39227.32063725173</v>
       </c>
     </row>
     <row r="1422" spans="1:6">
@@ -28973,13 +28973,13 @@
         <v>50</v>
       </c>
       <c r="D1422">
-        <v>34615.56542726767</v>
+        <v>29254.18931845883</v>
       </c>
       <c r="E1422">
-        <v>21343.02380306998</v>
+        <v>16906.47013959491</v>
       </c>
       <c r="F1422">
-        <v>47888.10705146536</v>
+        <v>41601.90849732274</v>
       </c>
     </row>
     <row r="1423" spans="1:6">
@@ -28993,13 +28993,13 @@
         <v>50</v>
       </c>
       <c r="D1423">
-        <v>37134.2700361227</v>
+        <v>30271.56689552671</v>
       </c>
       <c r="E1423">
-        <v>22171.99193859728</v>
+        <v>16749.10348128547</v>
       </c>
       <c r="F1423">
-        <v>52096.54813364812</v>
+        <v>43794.03030976795</v>
       </c>
     </row>
     <row r="1424" spans="1:6">
@@ -29013,13 +29013,13 @@
         <v>50</v>
       </c>
       <c r="D1424">
-        <v>39713.88559744113</v>
+        <v>31273.57179270124</v>
       </c>
       <c r="E1424">
-        <v>23250.47662864728</v>
+        <v>16726.81241181646</v>
       </c>
       <c r="F1424">
-        <v>56177.29456623497</v>
+        <v>45820.33117358603</v>
       </c>
     </row>
     <row r="1425" spans="1:6">
@@ -29033,13 +29033,13 @@
         <v>50</v>
       </c>
       <c r="D1425">
-        <v>42326.2315890962</v>
+        <v>32286.04309594355</v>
       </c>
       <c r="E1425">
-        <v>24557.31638921212</v>
+        <v>16849.07388664989</v>
       </c>
       <c r="F1425">
-        <v>60095.14678898027</v>
+        <v>47723.01230523722</v>
       </c>
     </row>
     <row r="1426" spans="1:6">
@@ -29053,13 +29053,13 @@
         <v>50</v>
       </c>
       <c r="D1426">
-        <v>44945.50172844071</v>
+        <v>33294.21475274858</v>
       </c>
       <c r="E1426">
-        <v>26071.24540705508</v>
+        <v>17073.05622888877</v>
       </c>
       <c r="F1426">
-        <v>63819.75804982633</v>
+        <v>49515.37327660839</v>
       </c>
     </row>
     <row r="1427" spans="1:6">
@@ -29073,13 +29073,13 @@
         <v>50</v>
       </c>
       <c r="D1427">
-        <v>47549.5943186139</v>
+        <v>34307.77606390093</v>
       </c>
       <c r="E1427">
-        <v>27759.81055390683</v>
+        <v>17394.63231783747</v>
       </c>
       <c r="F1427">
-        <v>67339.37808332097</v>
+        <v>51220.91980996438</v>
       </c>
     </row>
     <row r="1428" spans="1:6">
@@ -30113,13 +30113,13 @@
         <v>52</v>
       </c>
       <c r="D1479">
-        <v>17285.74607584954</v>
+        <v>17448.32417827558</v>
       </c>
       <c r="E1479">
-        <v>16359.53731997963</v>
+        <v>16165.40871126751</v>
       </c>
       <c r="F1479">
-        <v>18211.95483171944</v>
+        <v>18731.23964528364</v>
       </c>
     </row>
     <row r="1480" spans="1:6">
@@ -30133,13 +30133,13 @@
         <v>52</v>
       </c>
       <c r="D1480">
-        <v>18495.72732477111</v>
+        <v>17768.61576437975</v>
       </c>
       <c r="E1480">
-        <v>16125.67992651485</v>
+        <v>15358.1442725796</v>
       </c>
       <c r="F1480">
-        <v>20865.77472302737</v>
+        <v>20179.08725617989</v>
       </c>
     </row>
     <row r="1481" spans="1:6">
@@ -30153,13 +30153,13 @@
         <v>52</v>
       </c>
       <c r="D1481">
-        <v>19592.19052909021</v>
+        <v>18089.14981007058</v>
       </c>
       <c r="E1481">
-        <v>15606.63989735784</v>
+        <v>14937.42904700642</v>
       </c>
       <c r="F1481">
-        <v>23577.74116082258</v>
+        <v>21240.87057313474</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -30173,13 +30173,13 @@
         <v>52</v>
       </c>
       <c r="D1482">
-        <v>21092.08430697331</v>
+        <v>18409.92510337586</v>
       </c>
       <c r="E1482">
-        <v>15745.20574997282</v>
+        <v>14666.23720098783</v>
       </c>
       <c r="F1482">
-        <v>26438.9628639738</v>
+        <v>22153.61300576388</v>
       </c>
     </row>
     <row r="1483" spans="1:6">
@@ -30193,13 +30193,13 @@
         <v>52</v>
       </c>
       <c r="D1483">
-        <v>22488.96761513297</v>
+        <v>18730.94043838158</v>
       </c>
       <c r="E1483">
-        <v>15785.40766695054</v>
+        <v>14481.66416381658</v>
       </c>
       <c r="F1483">
-        <v>29192.5275633154</v>
+        <v>22980.21671294658</v>
       </c>
     </row>
     <row r="1484" spans="1:6">
@@ -30213,13 +30213,13 @@
         <v>52</v>
       </c>
       <c r="D1484">
-        <v>24180.39457457839</v>
+        <v>19052.19461520172</v>
       </c>
       <c r="E1484">
-        <v>16259.71367836379</v>
+        <v>14355.68538609267</v>
       </c>
       <c r="F1484">
-        <v>32101.07547079298</v>
+        <v>23748.70384431076</v>
       </c>
     </row>
     <row r="1485" spans="1:6">
@@ -30233,13 +30233,13 @@
         <v>52</v>
       </c>
       <c r="D1485">
-        <v>25771.21046881721</v>
+        <v>19373.68643994804</v>
       </c>
       <c r="E1485">
-        <v>16722.4017985382</v>
+        <v>14272.88736171588</v>
       </c>
       <c r="F1485">
-        <v>34820.01913909623</v>
+        <v>24474.4855181802</v>
       </c>
     </row>
     <row r="1486" spans="1:6">
@@ -30253,13 +30253,13 @@
         <v>52</v>
       </c>
       <c r="D1486">
-        <v>27547.74084879751</v>
+        <v>19695.41472470017</v>
       </c>
       <c r="E1486">
-        <v>17543.72115770779</v>
+        <v>14223.70533699668</v>
       </c>
       <c r="F1486">
-        <v>37551.76053988723</v>
+        <v>25167.12411240365</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -30273,13 +30273,13 @@
         <v>52</v>
       </c>
       <c r="D1487">
-        <v>29222.84904620825</v>
+        <v>20017.37828747573</v>
       </c>
       <c r="E1487">
-        <v>18381.34730286145</v>
+        <v>14201.71409444642</v>
       </c>
       <c r="F1487">
-        <v>40064.35078955504</v>
+        <v>25833.04248050504</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -30293,13 +30293,13 @@
         <v>52</v>
       </c>
       <c r="D1488">
-        <v>31007.46228104552</v>
+        <v>20339.57595220066</v>
       </c>
       <c r="E1488">
-        <v>19481.63117831476</v>
+        <v>14202.34690627541</v>
       </c>
       <c r="F1488">
-        <v>42533.29338377628</v>
+        <v>26476.8049981259</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
@@ -30313,13 +30313,13 @@
         <v>52</v>
       </c>
       <c r="D1489">
-        <v>32689.06346938819</v>
+        <v>20662.0065486797</v>
       </c>
       <c r="E1489">
-        <v>20594.15324596548</v>
+        <v>14222.21767166332</v>
       </c>
       <c r="F1489">
-        <v>44783.97369281091</v>
+        <v>27101.79542569607</v>
       </c>
     </row>
     <row r="1490" spans="1:6">
